--- a/Assignment 2/Part 2/Prediction Results.xlsx
+++ b/Assignment 2/Part 2/Prediction Results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily-air13/Desktop/code/INFO-7390-ADS-Fall-17-TeamNo.4/Assignment 2/Part 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raksh\Desktop\Ads\Ads Assignment and project\INFO-7390-ADS-Fall-17-TeamNo.4\Assignment 2\Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="460" windowWidth="16600" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="11080" yWindow="460" windowWidth="16600" windowHeight="16820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="32">
   <si>
     <t>Model</t>
   </si>
@@ -120,13 +120,16 @@
   </si>
   <si>
     <t>Neural Network: hidden layers (500, 200, 100) max_iter(10)</t>
+  </si>
+  <si>
+    <t>Random Forest (n_estimators=60)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -239,6 +242,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -506,19 +512,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -544,7 +550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -570,7 +576,7 @@
         <v>22.565913097399999</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -596,7 +602,7 @@
         <v>22.5692472448</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -622,7 +628,7 @@
         <v>31.718591549500001</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="31">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -648,7 +654,7 @@
         <v>20.188333866200001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="46.5">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -674,7 +680,7 @@
         <v>20.330434866200001</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="46.5">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -700,21 +706,33 @@
         <v>20.2085794857</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="31">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C8" s="1">
+        <v>1.2676872868328899</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3.3476879081220701</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.95149783167799995</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2.5414340388299999</v>
+      </c>
+      <c r="G8" s="1">
+        <v>7.7052231184900002</v>
+      </c>
+      <c r="H8" s="1">
+        <v>20.600229796600001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="10" customFormat="1">
       <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
@@ -728,7 +746,7 @@
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="7" customFormat="1">
       <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
@@ -754,7 +772,7 @@
         <v>24.395524057100001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="7" customFormat="1">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -780,21 +798,33 @@
         <v>20.787755507</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" s="7" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C12" s="8">
+        <v>1.2265049278042699</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3.2273988931612099</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.92948896758800004</v>
+      </c>
+      <c r="F12" s="8">
+        <v>2.4810391467700001</v>
+      </c>
+      <c r="G12" s="8">
+        <v>7.9900750128300002</v>
+      </c>
+      <c r="H12" s="8">
+        <v>21.370734868100001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="10" customFormat="1">
       <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
@@ -808,7 +838,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
@@ -834,7 +864,7 @@
         <v>19.749099111500001</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -860,21 +890,33 @@
         <v>17.2521632035</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C16" s="1">
+        <v>1.098735164409</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2.8704346185498499</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.82978522494600004</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2.2033366267000001</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.5635780409200004</v>
+      </c>
+      <c r="H16" s="1">
+        <v>17.535825323200001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="10" customFormat="1">
       <c r="A17" s="9" t="s">
         <v>25</v>
       </c>
@@ -888,7 +930,7 @@
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>8</v>
       </c>
@@ -914,7 +956,7 @@
         <v>23.6741218839</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -940,21 +982,33 @@
         <v>21.1082463535</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C20" s="1">
+        <v>1.4532990923721301</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.85931890346325</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1.04864733723</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.8108368664999999</v>
+      </c>
+      <c r="G20" s="1">
+        <v>8.0506943859700009</v>
+      </c>
+      <c r="H20" s="1">
+        <v>21.5275405977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="10" customFormat="1">
       <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
@@ -968,7 +1022,7 @@
       <c r="G21" s="11"/>
       <c r="H21" s="11"/>
     </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>8</v>
       </c>
@@ -994,7 +1048,7 @@
         <v>22.716151169300002</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1020,21 +1074,33 @@
         <v>20.8530544519</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>1.35553345988686</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.5875840775064098</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1.0142811012299999</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2.7153253154799999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>7.84371016391</v>
+      </c>
+      <c r="H24" s="1">
+        <v>20.913285328699999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="10" customFormat="1">
       <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
@@ -1048,7 +1114,7 @@
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
     </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
@@ -1074,7 +1140,7 @@
         <v>21.3165419097</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>29</v>
       </c>
@@ -1100,21 +1166,33 @@
         <v>18.5272599744</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>1.0904147897045</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2.8761298174471701</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.83922123302600005</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2.2433825678499999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>7.0502035227100004</v>
+      </c>
+      <c r="H28" s="1">
+        <v>18.839804621799999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="10" customFormat="1">
       <c r="A29" s="9" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1206,7 @@
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
     </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -1154,7 +1232,7 @@
         <v>17.0423735808</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
@@ -1180,21 +1258,33 @@
         <v>14.482275571100001</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C32" s="1">
+        <v>0.97431876452491195</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2.5696793380418601</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.74480828519999998</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1.9876735240900001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5.5765552099800004</v>
+      </c>
+      <c r="H32" s="1">
+        <v>14.764081537199999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="10" customFormat="1">
       <c r="A33" s="9" t="s">
         <v>25</v>
       </c>
@@ -1208,7 +1298,7 @@
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
     </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -1234,7 +1324,7 @@
         <v>20.8518797479</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
         <v>29</v>
       </c>
@@ -1260,21 +1350,33 @@
         <v>18.048450912500002</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B36" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>1.04109924605938</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2.7474176518710101</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.79994606134699997</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2.1381596000899998</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6.8759183890899997</v>
+      </c>
+      <c r="H36" s="1">
+        <v>18.452372630999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="10" customFormat="1">
       <c r="A37" s="9" t="s">
         <v>25</v>
       </c>
@@ -1288,7 +1390,7 @@
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
     </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +1416,7 @@
         <v>23.735298059400002</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="3" t="s">
         <v>29</v>
       </c>
@@ -1340,21 +1442,33 @@
         <v>20.803870353299999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C40" s="1">
+        <v>1.0364325267290799</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2.7600977620974798</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.74231754285899998</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1.98803859024</v>
+      </c>
+      <c r="G40" s="1">
+        <v>7.7077067328300002</v>
+      </c>
+      <c r="H40" s="1">
+        <v>20.580549409900001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="10" customFormat="1">
       <c r="A41" s="12" t="s">
         <v>25</v>
       </c>
@@ -1368,7 +1482,7 @@
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
     </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="2" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1508,7 @@
         <v>23.6601098955</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="3" t="s">
         <v>29</v>
       </c>
@@ -1420,21 +1534,33 @@
         <v>22.520409324399999</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B44" t="s">
         <v>19</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C44" s="1">
+        <v>1.1921831525362501</v>
+      </c>
+      <c r="D44" s="1">
+        <v>3.1481481917251499</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.88860304137099999</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.36979415301</v>
+      </c>
+      <c r="G44" s="1">
+        <v>7.90711483796</v>
+      </c>
+      <c r="H44" s="1">
+        <v>21.056855692399999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="10" customFormat="1">
       <c r="A45" s="12" t="s">
         <v>25</v>
       </c>
@@ -1448,7 +1574,7 @@
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
     </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
         <v>8</v>
       </c>
@@ -1474,7 +1600,7 @@
         <v>23.0274027424</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="3" t="s">
         <v>29</v>
       </c>
@@ -1500,21 +1626,33 @@
         <v>20.7612607947</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C48" s="1">
+        <v>1.2562807320581399</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.3046935198171301</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0.94083317276099998</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.4979217492900001</v>
+      </c>
+      <c r="G48" s="1">
+        <v>7.7389303860899998</v>
+      </c>
+      <c r="H48" s="1">
+        <v>20.541319918999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="10" customFormat="1">
       <c r="A49" s="12" t="s">
         <v>25</v>
       </c>
@@ -1528,7 +1666,7 @@
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
     </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
@@ -1554,7 +1692,7 @@
         <v>22.698147968699999</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
       <c r="A51" s="3" t="s">
         <v>29</v>
       </c>
@@ -1580,21 +1718,33 @@
         <v>20.9583711778</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-    </row>
-    <row r="53" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C52" s="1">
+        <v>1.2866066658883999</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.3967386977001199</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0.96768186416299995</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2.5880835811099998</v>
+      </c>
+      <c r="G52" s="1">
+        <v>7.5825909100700004</v>
+      </c>
+      <c r="H52" s="1">
+        <v>20.4132749314</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="10" customFormat="1">
       <c r="A53" s="12" t="s">
         <v>25</v>
       </c>
@@ -1608,7 +1758,7 @@
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
     </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
@@ -1634,7 +1784,7 @@
         <v>21.089022474499998</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
       <c r="A55" s="3" t="s">
         <v>29</v>
       </c>
@@ -1660,21 +1810,33 @@
         <v>20.269241084499999</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
       <c r="A56" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B56" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-    </row>
-    <row r="57" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="C56" s="1">
+        <v>1.2813483904846801</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.3804149770896998</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0.96441808893799996</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.5749804815899999</v>
+      </c>
+      <c r="G56" s="1">
+        <v>7.1374497618400001</v>
+      </c>
+      <c r="H56" s="1">
+        <v>19.003275223799999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="10" customFormat="1">
       <c r="A57" s="12" t="s">
         <v>25</v>
       </c>
@@ -1688,7 +1850,7 @@
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
     </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
         <v>8</v>
       </c>
@@ -1714,7 +1876,7 @@
         <v>20.100375998899999</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="2" t="s">
         <v>29</v>
       </c>
@@ -1740,15 +1902,33 @@
         <v>18.406782006299998</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B60" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C60" s="1">
+        <v>1.2655297823201701</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.34653792718075</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0.95689853270900005</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2.5666974040800001</v>
+      </c>
+      <c r="G60" s="1">
+        <v>6.6377021634800002</v>
+      </c>
+      <c r="H60" s="1">
+        <v>17.805999684100001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="2" t="s">
         <v>25</v>
       </c>
@@ -1758,5 +1938,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignment 2/Part 2/Prediction Results.xlsx
+++ b/Assignment 2/Part 2/Prediction Results.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emily-air13/Desktop/code/INFO-7390-ADS-Fall-17-TeamNo.4/Assignment 2/Part 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raksh\Desktop\Ads\Ads Assignment and project\INFO-7390-ADS-Fall-17-TeamNo.4\Assignment 2\Part 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="460" windowWidth="16600" windowHeight="16820" tabRatio="500"/>
+    <workbookView xWindow="7340" yWindow="460" windowWidth="16600" windowHeight="16820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
   <si>
     <t>Model</t>
   </si>
@@ -138,13 +138,19 @@
   </si>
   <si>
     <t>Lowest Value</t>
+  </si>
+  <si>
+    <t>Random Forest (n_estimators=20)</t>
+  </si>
+  <si>
+    <t>Random Forest (n_estimators=90)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -543,19 +549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="5" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -584,7 +590,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -610,7 +616,7 @@
         <v>22.565913097399999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -636,7 +642,7 @@
         <v>22.5692472448</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -662,7 +668,7 @@
         <v>31.718591549500001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="31">
       <c r="A5" s="2" t="s">
         <v>27</v>
       </c>
@@ -688,7 +694,7 @@
         <v>20.188333866200001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="46.5">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -714,7 +720,7 @@
         <v>20.330434866200001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="46.5">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -740,10 +746,13 @@
         <v>20.2085794857</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="46.5">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
       <c r="C8" s="1">
         <v>3.1761457618103299</v>
       </c>
@@ -763,1459 +772,1511 @@
         <v>20.4800312729</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="31">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1">
-        <v>1.2676872868328899</v>
+        <v>1.3600259412331701</v>
       </c>
       <c r="D9" s="1">
-        <v>3.3476879081220701</v>
+        <v>3.41005344759636</v>
       </c>
       <c r="E9" s="1">
-        <v>0.95149783167799995</v>
+        <v>0.99863427843899999</v>
       </c>
       <c r="F9" s="1">
-        <v>2.5414340388299999</v>
+        <v>2.5922674459700001</v>
       </c>
       <c r="G9" s="1">
-        <v>7.7052231184900002</v>
+        <v>8.0668996222700002</v>
       </c>
       <c r="H9" s="1">
-        <v>20.600229796600001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>20.992184613100001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="31">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>3.7499824881607098</v>
+        <v>1.2676872868328899</v>
       </c>
       <c r="D10" s="1">
-        <v>4.5861409469993104</v>
+        <v>3.3476879081220701</v>
       </c>
       <c r="E10" s="1">
-        <v>2.9058720059200001</v>
+        <v>0.95149783167799995</v>
       </c>
       <c r="F10" s="1">
-        <v>3.5545191537999998</v>
+        <v>2.5414340388299999</v>
       </c>
       <c r="G10" s="1">
-        <v>24.531542893099999</v>
+        <v>7.7052231184900002</v>
       </c>
       <c r="H10" s="1">
-        <v>30.032073969300001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+        <v>20.600229796600001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="31">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="1">
+        <v>1.25348618385194</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3.3396226439566798</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.94399579197299999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2.5366405598099999</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.6490377801499996</v>
+      </c>
+      <c r="H11" s="1">
+        <v>20.567990074699999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3.7499824881607098</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4.5861409469993104</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.9058720059200001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>3.5545191537999998</v>
+      </c>
+      <c r="G12" s="1">
+        <v>24.531542893099999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>30.032073969300001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1">
         <v>3.9793228555102198</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1">
         <v>4.39564492779364</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E13" s="1">
         <v>3.0788358762199999</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F13" s="1">
         <v>3.4009359898499998</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G13" s="1">
         <v>26.145371003099999</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H13" s="1">
         <v>28.8700109764</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="31">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C14" s="11">
         <v>3.97688729675383</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D14" s="11">
         <v>4.4046665949643398</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E14" s="11">
         <v>3.0769666084399998</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F14" s="11">
         <v>3.4081507120499999</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G14" s="11">
         <v>26.128913942299999</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H14" s="11">
         <v>28.9437853246</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+    <row r="15" spans="1:10" s="7" customFormat="1">
+      <c r="A15" s="6" t="s">
         <v>8</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="8">
-        <v>3.56526197840962</v>
-      </c>
-      <c r="D13" s="8">
-        <v>3.5327663089173398</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.7651517566199999</v>
-      </c>
-      <c r="F13" s="8">
-        <v>2.75883372871</v>
-      </c>
-      <c r="G13" s="8">
-        <v>24.267496974299998</v>
-      </c>
-      <c r="H13" s="8">
-        <v>24.395524057100001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="8">
-        <v>3.06661370913787</v>
-      </c>
-      <c r="D14" s="14">
-        <v>3.19639469624006</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2.34191621068</v>
-      </c>
-      <c r="F14" s="14">
-        <v>2.4423011636899998</v>
-      </c>
-      <c r="G14" s="8">
-        <v>19.952302425500001</v>
-      </c>
-      <c r="H14" s="14">
-        <v>20.787755507</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="8">
+        <v>3.56526197840962</v>
+      </c>
+      <c r="D15" s="8">
+        <v>3.5327663089173398</v>
+      </c>
+      <c r="E15" s="8">
+        <v>2.7651517566199999</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2.75883372871</v>
+      </c>
+      <c r="G15" s="8">
+        <v>24.267496974299998</v>
+      </c>
+      <c r="H15" s="8">
+        <v>24.395524057100001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="7" customFormat="1">
+      <c r="A16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="8">
+        <v>3.06661370913787</v>
+      </c>
+      <c r="D16" s="14">
+        <v>3.19639469624006</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2.34191621068</v>
+      </c>
+      <c r="F16" s="14">
+        <v>2.4423011636899998</v>
+      </c>
+      <c r="G16" s="8">
+        <v>19.952302425500001</v>
+      </c>
+      <c r="H16" s="14">
+        <v>20.787755507</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="7" customFormat="1">
+      <c r="A17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="8">
         <v>1.2265049278042699</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D17" s="8">
         <v>3.2273988931612099</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E17" s="8">
         <v>0.92948896758800004</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F17" s="8">
         <v>2.4810391467700001</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G17" s="8">
         <v>7.9900750128300002</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H17" s="8">
         <v>21.370734868100001</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="18" spans="1:8" s="10" customFormat="1">
+      <c r="A18" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C18" s="11">
         <v>3.7976456102862199</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D18" s="11">
         <v>4.6345298495354896</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E18" s="11">
         <v>2.9601196376000001</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F18" s="11">
         <v>3.6215364965100001</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G18" s="11">
         <v>26.6127859385</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H18" s="11">
         <v>32.674335405500003</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3.1339000071396099</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3.1542774258330599</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2.4243498149799998</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2.4461628983599999</v>
-      </c>
-      <c r="G17" s="1">
-        <v>19.633833468599999</v>
-      </c>
-      <c r="H17" s="1">
-        <v>19.749099111500001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2.7117863398528201</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2.87588324404273</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2.0775376585199998</v>
-      </c>
-      <c r="F18" s="13">
-        <v>2.20105015679</v>
-      </c>
-      <c r="G18" s="1">
-        <v>16.3273114554</v>
-      </c>
-      <c r="H18" s="13">
-        <v>17.2521632035</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1">
+        <v>3.1339000071396099</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3.1542774258330599</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2.4243498149799998</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2.4461628983599999</v>
+      </c>
+      <c r="G19" s="1">
+        <v>19.633833468599999</v>
+      </c>
+      <c r="H19" s="1">
+        <v>19.749099111500001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.7117863398528201</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.87588324404273</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2.0775376585199998</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2.20105015679</v>
+      </c>
+      <c r="G20" s="1">
+        <v>16.3273114554</v>
+      </c>
+      <c r="H20" s="13">
+        <v>17.2521632035</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
         <v>1.098735164409</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D21" s="13">
         <v>2.8704346185498499</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E21" s="1">
         <v>0.82978522494600004</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F21" s="1">
         <v>2.2033366267000001</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G21" s="1">
         <v>6.5635780409200004</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H21" s="1">
         <v>17.535825323200001</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="22" spans="1:8" s="10" customFormat="1">
+      <c r="A22" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C22" s="11">
         <v>3.4379492383638701</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D22" s="11">
         <v>4.1934859526083796</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E22" s="11">
         <v>2.7021979225999999</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F22" s="11">
         <v>3.2967231886500001</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G22" s="11">
         <v>22.424544727899999</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H22" s="11">
         <v>27.455450735300001</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="23" spans="1:8">
+      <c r="A23" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="1">
-        <v>4.0995059068571997</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4.0939878086567099</v>
-      </c>
-      <c r="E21" s="1">
-        <v>3.0257688485599998</v>
-      </c>
-      <c r="F21" s="1">
-        <v>3.0236895604899998</v>
-      </c>
-      <c r="G21" s="1">
-        <v>23.734895724899999</v>
-      </c>
-      <c r="H21" s="1">
-        <v>23.6741218839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" s="1">
-        <v>3.6366296137629002</v>
-      </c>
-      <c r="D22" s="13">
-        <v>3.8368202773499398</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2.6495814474800001</v>
-      </c>
-      <c r="F22" s="13">
-        <v>2.7740505254999999</v>
-      </c>
-      <c r="G22" s="1">
-        <v>20.2305102252</v>
-      </c>
-      <c r="H22" s="13">
-        <v>21.1082463535</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="1">
+        <v>4.0995059068571997</v>
+      </c>
+      <c r="D23" s="1">
+        <v>4.0939878086567099</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3.0257688485599998</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3.0236895604899998</v>
+      </c>
+      <c r="G23" s="1">
+        <v>23.734895724899999</v>
+      </c>
+      <c r="H23" s="1">
+        <v>23.6741218839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="1">
+        <v>3.6366296137629002</v>
+      </c>
+      <c r="D24" s="13">
+        <v>3.8368202773499398</v>
+      </c>
+      <c r="E24" s="1">
+        <v>2.6495814474800001</v>
+      </c>
+      <c r="F24" s="13">
+        <v>2.7740505254999999</v>
+      </c>
+      <c r="G24" s="1">
+        <v>20.2305102252</v>
+      </c>
+      <c r="H24" s="13">
+        <v>21.1082463535</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="1">
         <v>1.4532990923721301</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D25" s="1">
         <v>3.85931890346325</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E25" s="1">
         <v>1.04864733723</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F25" s="1">
         <v>2.8108368664999999</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G25" s="1">
         <v>8.0506943859700009</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H25" s="1">
         <v>21.5275405977</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="26" spans="1:8" s="10" customFormat="1">
+      <c r="A26" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C26" s="11">
         <v>4.2074151481056496</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D26" s="11">
         <v>5.1701327999111903</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E26" s="11">
         <v>3.1669694649600002</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F26" s="11">
         <v>3.8816257970999999</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G26" s="11">
         <v>26.0010088678</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H26" s="11">
         <v>31.9233651407</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="1">
-        <v>3.8353515908777198</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3.8295581100221301</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2.9277095298</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2.9174999340199999</v>
-      </c>
-      <c r="G25" s="1">
-        <v>22.805344016599999</v>
-      </c>
-      <c r="H25" s="1">
-        <v>22.716151169300002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
-      </c>
-      <c r="C26" s="1">
-        <v>3.4423975892742602</v>
-      </c>
-      <c r="D26" s="13">
-        <v>3.5470058416324002</v>
-      </c>
-      <c r="E26" s="1">
-        <v>2.61052378704</v>
-      </c>
-      <c r="F26" s="13">
-        <v>2.6832900473099999</v>
-      </c>
-      <c r="G26" s="1">
-        <v>20.319647208199999</v>
-      </c>
-      <c r="H26" s="13">
-        <v>20.8530544519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="1">
+        <v>3.8353515908777198</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.8295581100221301</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2.9277095298</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.9174999340199999</v>
+      </c>
+      <c r="G27" s="1">
+        <v>22.805344016599999</v>
+      </c>
+      <c r="H27" s="1">
+        <v>22.716151169300002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.4423975892742602</v>
+      </c>
+      <c r="D28" s="13">
+        <v>3.5470058416324002</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.61052378704</v>
+      </c>
+      <c r="F28" s="13">
+        <v>2.6832900473099999</v>
+      </c>
+      <c r="G28" s="1">
+        <v>20.319647208199999</v>
+      </c>
+      <c r="H28" s="13">
+        <v>20.8530544519</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="1">
         <v>1.35553345988686</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D29" s="1">
         <v>3.5875840775064098</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E29" s="1">
         <v>1.0142811012299999</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F29" s="1">
         <v>2.7153253154799999</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G29" s="1">
         <v>7.84371016391</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H29" s="1">
         <v>20.913285328699999</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+    <row r="30" spans="1:8" s="10" customFormat="1">
+      <c r="A30" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C30" s="11">
         <v>3.9498840532463402</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D30" s="11">
         <v>4.82148023079308</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E30" s="11">
         <v>3.01874267066</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F30" s="11">
         <v>3.67643132143</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G30" s="11">
         <v>24.249098538999998</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H30" s="11">
         <v>29.554654053</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    <row r="31" spans="1:8">
+      <c r="A31" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="1">
-        <v>3.14102406913337</v>
-      </c>
-      <c r="D29" s="1">
-        <v>3.1325423851670799</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2.4784520462900002</v>
-      </c>
-      <c r="F29" s="1">
-        <v>2.4756863523899999</v>
-      </c>
-      <c r="G29" s="1">
-        <v>21.252652658199999</v>
-      </c>
-      <c r="H29" s="1">
-        <v>21.3165419097</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2.7204210290317898</v>
-      </c>
-      <c r="D30" s="13">
-        <v>2.8534555159947899</v>
-      </c>
-      <c r="E30" s="1">
-        <v>2.11265932355</v>
-      </c>
-      <c r="F30" s="13">
-        <v>2.2163072314900001</v>
-      </c>
-      <c r="G30" s="1">
-        <v>17.6399405192</v>
-      </c>
-      <c r="H30" s="13">
-        <v>18.5272599744</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="1">
+        <v>3.14102406913337</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.1325423851670799</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2.4784520462900002</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2.4756863523899999</v>
+      </c>
+      <c r="G31" s="1">
+        <v>21.252652658199999</v>
+      </c>
+      <c r="H31" s="1">
+        <v>21.3165419097</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2.7204210290317898</v>
+      </c>
+      <c r="D32" s="13">
+        <v>2.8534555159947899</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2.11265932355</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2.2163072314900001</v>
+      </c>
+      <c r="G32" s="1">
+        <v>17.6399405192</v>
+      </c>
+      <c r="H32" s="13">
+        <v>18.5272599744</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="1">
         <v>1.0904147897045</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D33" s="1">
         <v>2.8761298174471701</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E33" s="1">
         <v>0.83922123302600005</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F33" s="1">
         <v>2.2433825678499999</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G33" s="1">
         <v>7.0502035227100004</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H33" s="1">
         <v>18.839804621799999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="34" spans="1:8" s="10" customFormat="1">
+      <c r="A34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B34" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C34" s="11">
         <v>3.35821068236136</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D34" s="11">
         <v>4.0998438103555896</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E34" s="11">
         <v>2.6497297923000001</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F34" s="11">
         <v>3.2377378619999999</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G34" s="11">
         <v>23.087997376099999</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H34" s="11">
         <v>28.388773644800001</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+    <row r="35" spans="1:8">
+      <c r="A35" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2.84832841439919</v>
-      </c>
-      <c r="D33" s="1">
-        <v>2.8365060434234501</v>
-      </c>
-      <c r="E33" s="1">
-        <v>2.2442871547799998</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2.2347710859999999</v>
-      </c>
-      <c r="G33" s="1">
-        <v>17.1006961597</v>
-      </c>
-      <c r="H33" s="1">
-        <v>17.0423735808</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1">
-        <v>2.4735322490107099</v>
-      </c>
-      <c r="D34" s="13">
-        <v>2.5471568708420902</v>
-      </c>
-      <c r="E34" s="1">
-        <v>1.90541320089</v>
-      </c>
-      <c r="F34" s="13">
-        <v>1.9618870766700001</v>
-      </c>
-      <c r="G34" s="1">
-        <v>14.0573497203</v>
-      </c>
-      <c r="H34" s="13">
-        <v>14.482275571100001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" s="1">
+        <v>2.84832841439919</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2.8365060434234501</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2.2442871547799998</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2.2347710859999999</v>
+      </c>
+      <c r="G35" s="1">
+        <v>17.1006961597</v>
+      </c>
+      <c r="H35" s="1">
+        <v>17.0423735808</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="1">
+        <v>2.4735322490107099</v>
+      </c>
+      <c r="D36" s="13">
+        <v>2.5471568708420902</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1.90541320089</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1.9618870766700001</v>
+      </c>
+      <c r="G36" s="1">
+        <v>14.0573497203</v>
+      </c>
+      <c r="H36" s="13">
+        <v>14.482275571100001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="1">
         <v>0.97431876452491195</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D37" s="1">
         <v>2.5696793380418601</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E37" s="1">
         <v>0.74480828519999998</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F37" s="1">
         <v>1.9876735240900001</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G37" s="1">
         <v>5.5765552099800004</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H37" s="1">
         <v>14.764081537199999</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="38" spans="1:8" s="10" customFormat="1">
+      <c r="A38" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C38" s="11">
         <v>3.36604758358957</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D38" s="11">
         <v>4.1091087801582598</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E38" s="11">
         <v>2.6784163005699999</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F38" s="11">
         <v>3.2729458142799999</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G38" s="11">
         <v>20.958770766600001</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H38" s="11">
         <v>25.711692297500001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+    <row r="39" spans="1:8">
+      <c r="A39" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3.0075462987911301</v>
-      </c>
-      <c r="D37" s="1">
-        <v>3.0254731819145899</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2.3690456126899999</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2.3785219767100001</v>
-      </c>
-      <c r="G37" s="1">
-        <v>20.8282172927</v>
-      </c>
-      <c r="H37" s="1">
-        <v>20.8518797479</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C38" s="1">
-        <v>2.6080194642200301</v>
-      </c>
-      <c r="D38" s="13">
-        <v>2.7286924694218602</v>
-      </c>
-      <c r="E38" s="1">
-        <v>2.0180808196800002</v>
-      </c>
-      <c r="F38" s="13">
-        <v>2.11403875831</v>
-      </c>
-      <c r="G38" s="1">
-        <v>17.224631111699999</v>
-      </c>
-      <c r="H38" s="13">
-        <v>18.048450912500002</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B39" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="1">
+        <v>3.0075462987911301</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.0254731819145899</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2.3690456126899999</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2.3785219767100001</v>
+      </c>
+      <c r="G39" s="1">
+        <v>20.8282172927</v>
+      </c>
+      <c r="H39" s="1">
+        <v>20.8518797479</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2.6080194642200301</v>
+      </c>
+      <c r="D40" s="13">
+        <v>2.7286924694218602</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2.0180808196800002</v>
+      </c>
+      <c r="F40" s="13">
+        <v>2.11403875831</v>
+      </c>
+      <c r="G40" s="1">
+        <v>17.224631111699999</v>
+      </c>
+      <c r="H40" s="13">
+        <v>18.048450912500002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="1">
         <v>1.04109924605938</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D41" s="1">
         <v>2.7474176518710101</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E41" s="1">
         <v>0.79994606134699997</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F41" s="1">
         <v>2.1381596000899998</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G41" s="1">
         <v>6.8759183890899997</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H41" s="1">
         <v>18.452372630999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="42" spans="1:8" s="10" customFormat="1">
+      <c r="A42" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C42" s="11">
         <v>3.2814383058252501</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D42" s="11">
         <v>4.0287956255559001</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E42" s="11">
         <v>2.58307374448</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F42" s="11">
         <v>3.1779362340800001</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G42" s="11">
         <v>23.204152333900002</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H42" s="11">
         <v>28.501024747700001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+    <row r="43" spans="1:8">
+      <c r="A43" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41" s="1">
-        <v>3.03710797474784</v>
-      </c>
-      <c r="D41" s="1">
-        <v>3.0456735888491502</v>
-      </c>
-      <c r="E41" s="1">
-        <v>2.24825484536</v>
-      </c>
-      <c r="F41" s="1">
-        <v>2.2505485041200002</v>
-      </c>
-      <c r="G41" s="1">
-        <v>23.7815106366</v>
-      </c>
-      <c r="H41" s="1">
-        <v>23.735298059400002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="1">
-        <v>2.64786343938025</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2.78669908816837</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1.92905559942</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2.01897337632</v>
-      </c>
-      <c r="G42" s="1">
-        <v>19.962016495299999</v>
-      </c>
-      <c r="H42" s="1">
-        <v>20.803870353299999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
       </c>
       <c r="C43" s="1">
+        <v>3.03710797474784</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3.0456735888491502</v>
+      </c>
+      <c r="E43" s="1">
+        <v>2.24825484536</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2.2505485041200002</v>
+      </c>
+      <c r="G43" s="1">
+        <v>23.7815106366</v>
+      </c>
+      <c r="H43" s="1">
+        <v>23.735298059400002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2.64786343938025</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2.78669908816837</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1.92905559942</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2.01897337632</v>
+      </c>
+      <c r="G44" s="1">
+        <v>19.962016495299999</v>
+      </c>
+      <c r="H44" s="1">
+        <v>20.803870353299999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="1">
         <v>1.0364325267290799</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D45" s="13">
         <v>2.7600977620974798</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E45" s="1">
         <v>0.74231754285899998</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F45" s="13">
         <v>1.98803859024</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G45" s="1">
         <v>7.7077067328300002</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H45" s="13">
         <v>20.580549409900001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="46" spans="1:8" s="10" customFormat="1">
+      <c r="A46" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="10" t="s">
+      <c r="B46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C46" s="11">
         <v>9.1921296573017699</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D46" s="11">
         <v>11.2939873505725</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E46" s="11">
         <v>7.1505307045000004</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F46" s="11">
         <v>9.0046670739200003</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G46" s="11">
         <v>15.895430426400001</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H46" s="11">
         <v>20.012923369300001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+    <row r="47" spans="1:8">
+      <c r="A47" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>19</v>
-      </c>
-      <c r="C45" s="1">
-        <v>3.4653327220294701</v>
-      </c>
-      <c r="D45" s="1">
-        <v>3.4527555000378398</v>
-      </c>
-      <c r="E45" s="1">
-        <v>2.63543588824</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2.6278935357200002</v>
-      </c>
-      <c r="G45" s="1">
-        <v>23.783505465099999</v>
-      </c>
-      <c r="H45" s="1">
-        <v>23.6601098955</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A46" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="1">
-        <v>3.1038996256993099</v>
-      </c>
-      <c r="D46" s="1">
-        <v>3.2566573051404601</v>
-      </c>
-      <c r="E46" s="1">
-        <v>2.3828233969000001</v>
-      </c>
-      <c r="F46" s="1">
-        <v>2.4902312056899998</v>
-      </c>
-      <c r="G46" s="1">
-        <v>21.669355913299999</v>
-      </c>
-      <c r="H46" s="1">
-        <v>22.520409324399999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B47" t="s">
         <v>19</v>
       </c>
       <c r="C47" s="1">
+        <v>3.4653327220294701</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3.4527555000378398</v>
+      </c>
+      <c r="E47" s="1">
+        <v>2.63543588824</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2.6278935357200002</v>
+      </c>
+      <c r="G47" s="1">
+        <v>23.783505465099999</v>
+      </c>
+      <c r="H47" s="1">
+        <v>23.6601098955</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.1038996256993099</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3.2566573051404601</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2.3828233969000001</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2.4902312056899998</v>
+      </c>
+      <c r="G48" s="1">
+        <v>21.669355913299999</v>
+      </c>
+      <c r="H48" s="1">
+        <v>22.520409324399999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="1">
         <v>1.1921831525362501</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D49" s="13">
         <v>3.1481481917251499</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E49" s="1">
         <v>0.88860304137099999</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F49" s="13">
         <v>2.36979415301</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G49" s="1">
         <v>7.90711483796</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H49" s="13">
         <v>21.056855692399999</v>
       </c>
     </row>
-    <row r="48" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+    <row r="50" spans="1:8" s="10" customFormat="1">
+      <c r="A50" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B48" s="10" t="s">
+      <c r="B50" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C50" s="11">
         <v>9.5340629334330202</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D50" s="11">
         <v>11.6741910890794</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E50" s="11">
         <v>7.7053457000899996</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F50" s="11">
         <v>9.6653577290099992</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G50" s="11">
         <v>17.184912019399999</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H50" s="11">
         <v>21.6116007808</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="1">
-        <v>3.6249253987949301</v>
-      </c>
-      <c r="D49" s="1">
-        <v>3.6395634447347098</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2.7596404461800002</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2.7711087223500002</v>
-      </c>
-      <c r="G49" s="1">
-        <v>23.005406415900001</v>
-      </c>
-      <c r="H49" s="1">
-        <v>23.0274027424</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="1">
-        <v>3.2826285098500501</v>
-      </c>
-      <c r="D50" s="1">
-        <v>3.4766512814178201</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2.4717446868200001</v>
-      </c>
-      <c r="F50" s="1">
-        <v>2.6042031807599999</v>
-      </c>
-      <c r="G50" s="1">
-        <v>19.777826657599999</v>
-      </c>
-      <c r="H50" s="1">
-        <v>20.7612607947</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B51" t="s">
         <v>20</v>
       </c>
       <c r="C51" s="1">
+        <v>3.6249253987949301</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3.6395634447347098</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2.7596404461800002</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2.7711087223500002</v>
+      </c>
+      <c r="G51" s="1">
+        <v>23.005406415900001</v>
+      </c>
+      <c r="H51" s="1">
+        <v>23.0274027424</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C52" s="1">
+        <v>3.2826285098500501</v>
+      </c>
+      <c r="D52" s="1">
+        <v>3.4766512814178201</v>
+      </c>
+      <c r="E52" s="1">
+        <v>2.4717446868200001</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2.6042031807599999</v>
+      </c>
+      <c r="G52" s="1">
+        <v>19.777826657599999</v>
+      </c>
+      <c r="H52" s="1">
+        <v>20.7612607947</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C53" s="1">
         <v>1.2562807320581399</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D53" s="13">
         <v>3.3046935198171301</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E53" s="1">
         <v>0.94083317276099998</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F53" s="13">
         <v>2.4979217492900001</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G53" s="1">
         <v>7.7389303860899998</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H53" s="13">
         <v>20.541319918999999</v>
       </c>
     </row>
-    <row r="52" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+    <row r="54" spans="1:8" s="10" customFormat="1">
+      <c r="A54" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B54" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C54" s="11">
         <v>9.5105621688590496</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D54" s="11">
         <v>11.635468023683099</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E54" s="11">
         <v>7.6734005563299998</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F54" s="11">
         <v>9.5543824066299994</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G54" s="11">
         <v>17.120479833099999</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H54" s="11">
         <v>21.288364770800001</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+    <row r="55" spans="1:8">
+      <c r="A55" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B53" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="1">
-        <v>3.7187560587797499</v>
-      </c>
-      <c r="D53" s="1">
-        <v>3.74168483535174</v>
-      </c>
-      <c r="E53" s="1">
-        <v>2.8458962062099999</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2.8603230824299999</v>
-      </c>
-      <c r="G53" s="1">
-        <v>22.6253919231</v>
-      </c>
-      <c r="H53" s="1">
-        <v>22.698147968699999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" s="1">
-        <v>3.3790037777789199</v>
-      </c>
-      <c r="D54" s="1">
-        <v>3.53417699687121</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2.57406267555</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2.6848730593500001</v>
-      </c>
-      <c r="G54" s="1">
-        <v>20.044242424699998</v>
-      </c>
-      <c r="H54" s="1">
-        <v>20.9583711778</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B55" t="s">
         <v>21</v>
       </c>
       <c r="C55" s="1">
+        <v>3.7187560587797499</v>
+      </c>
+      <c r="D55" s="1">
+        <v>3.74168483535174</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2.8458962062099999</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2.8603230824299999</v>
+      </c>
+      <c r="G55" s="1">
+        <v>22.6253919231</v>
+      </c>
+      <c r="H55" s="1">
+        <v>22.698147968699999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3.3790037777789199</v>
+      </c>
+      <c r="D56" s="1">
+        <v>3.53417699687121</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2.57406267555</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2.6848730593500001</v>
+      </c>
+      <c r="G56" s="1">
+        <v>20.044242424699998</v>
+      </c>
+      <c r="H56" s="1">
+        <v>20.9583711778</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57" s="1">
         <v>1.2866066658883999</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D57" s="13">
         <v>3.3967386977001199</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E57" s="1">
         <v>0.96768186416299995</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F57" s="13">
         <v>2.5880835811099998</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G57" s="1">
         <v>7.5825909100700004</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H57" s="13">
         <v>20.4132749314</v>
       </c>
     </row>
-    <row r="56" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A56" s="12" t="s">
+    <row r="58" spans="1:8" s="10" customFormat="1">
+      <c r="A58" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B58" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C58" s="11">
         <v>9.3862289892556596</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D58" s="11">
         <v>11.492612733328301</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E58" s="11">
         <v>7.4652872913600001</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F58" s="11">
         <v>9.3603243641699994</v>
       </c>
-      <c r="G56" s="11">
+      <c r="G58" s="11">
         <v>16.6281727577</v>
       </c>
-      <c r="H56" s="11">
+      <c r="H58" s="11">
         <v>20.871098005499999</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+    <row r="59" spans="1:8">
+      <c r="A59" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B57" t="s">
-        <v>22</v>
-      </c>
-      <c r="C57" s="1">
-        <v>3.68925693293192</v>
-      </c>
-      <c r="D57" s="1">
-        <v>3.68271279282895</v>
-      </c>
-      <c r="E57" s="1">
-        <v>2.8350815999500001</v>
-      </c>
-      <c r="F57" s="1">
-        <v>2.8260408302000002</v>
-      </c>
-      <c r="G57" s="1">
-        <v>21.197837668799998</v>
-      </c>
-      <c r="H57" s="1">
-        <v>21.089022474499998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B58" t="s">
-        <v>22</v>
-      </c>
-      <c r="C58" s="1">
-        <v>3.3720958566496599</v>
-      </c>
-      <c r="D58" s="1">
-        <v>3.5107302787710699</v>
-      </c>
-      <c r="E58" s="1">
-        <v>2.6026531586699999</v>
-      </c>
-      <c r="F58" s="1">
-        <v>2.7015116769900001</v>
-      </c>
-      <c r="G58" s="1">
-        <v>19.457265434499998</v>
-      </c>
-      <c r="H58" s="1">
-        <v>20.269241084499999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B59" t="s">
         <v>22</v>
       </c>
       <c r="C59" s="1">
+        <v>3.68925693293192</v>
+      </c>
+      <c r="D59" s="1">
+        <v>3.68271279282895</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2.8350815999500001</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2.8260408302000002</v>
+      </c>
+      <c r="G59" s="1">
+        <v>21.197837668799998</v>
+      </c>
+      <c r="H59" s="1">
+        <v>21.089022474499998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3.3720958566496599</v>
+      </c>
+      <c r="D60" s="1">
+        <v>3.5107302787710699</v>
+      </c>
+      <c r="E60" s="1">
+        <v>2.6026531586699999</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2.7015116769900001</v>
+      </c>
+      <c r="G60" s="1">
+        <v>19.457265434499998</v>
+      </c>
+      <c r="H60" s="1">
+        <v>20.269241084499999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61" s="1">
         <v>1.2813483904846801</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D61" s="13">
         <v>3.3804149770896998</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E61" s="1">
         <v>0.96441808893799996</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F61" s="13">
         <v>2.5749804815899999</v>
       </c>
-      <c r="G59" s="1">
+      <c r="G61" s="1">
         <v>7.1374497618400001</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H61" s="13">
         <v>19.003275223799999</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="10" customFormat="1" ht="17" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
+    <row r="62" spans="1:8" s="10" customFormat="1">
+      <c r="A62" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B62" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C62" s="11">
         <v>9.2091102544083707</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D62" s="11">
         <v>11.2900874348607</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E62" s="11">
         <v>7.1887365581499996</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F62" s="11">
         <v>9.0509449500599999</v>
       </c>
-      <c r="G60" s="11">
+      <c r="G62" s="11">
         <v>15.9889068964</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H62" s="11">
         <v>20.138606753000001</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+    <row r="63" spans="1:8">
+      <c r="A63" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B61" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="1">
-        <v>3.69176995080403</v>
-      </c>
-      <c r="D61" s="1">
-        <v>3.6944622825143401</v>
-      </c>
-      <c r="E61" s="1">
-        <v>2.8623609720499998</v>
-      </c>
-      <c r="F61" s="1">
-        <v>2.8698897677000001</v>
-      </c>
-      <c r="G61" s="1">
-        <v>20.0612733076</v>
-      </c>
-      <c r="H61" s="1">
-        <v>20.100375998899999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B62" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="1">
-        <v>3.4126224190393901</v>
-      </c>
-      <c r="D62" s="1">
-        <v>3.47345483330799</v>
-      </c>
-      <c r="E62" s="1">
-        <v>2.6205386708599998</v>
-      </c>
-      <c r="F62" s="1">
-        <v>2.6675517231799999</v>
-      </c>
-      <c r="G62" s="1">
-        <v>18.106414107900001</v>
-      </c>
-      <c r="H62" s="1">
-        <v>18.406782006299998</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="17" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="B63" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="1">
-        <v>1.2655297823201701</v>
-      </c>
-      <c r="D63" s="13">
-        <v>3.34653792718075</v>
+        <v>3.69176995080403</v>
+      </c>
+      <c r="D63" s="1">
+        <v>3.6944622825143401</v>
       </c>
       <c r="E63" s="1">
-        <v>0.95689853270900005</v>
-      </c>
-      <c r="F63" s="13">
-        <v>2.5666974040800001</v>
+        <v>2.8623609720499998</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2.8698897677000001</v>
       </c>
       <c r="G63" s="1">
-        <v>6.6377021634800002</v>
-      </c>
-      <c r="H63" s="13">
-        <v>17.805999684100001</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+        <v>20.0612733076</v>
+      </c>
+      <c r="H63" s="1">
+        <v>20.100375998899999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B64" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="1">
+        <v>3.4126224190393901</v>
+      </c>
+      <c r="D64" s="1">
+        <v>3.47345483330799</v>
+      </c>
+      <c r="E64" s="1">
+        <v>2.6205386708599998</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2.6675517231799999</v>
+      </c>
+      <c r="G64" s="1">
+        <v>18.106414107900001</v>
+      </c>
+      <c r="H64" s="1">
+        <v>18.406782006299998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1.2655297823201701</v>
+      </c>
+      <c r="D65" s="13">
+        <v>3.34653792718075</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0.95689853270900005</v>
+      </c>
+      <c r="F65" s="13">
+        <v>2.5666974040800001</v>
+      </c>
+      <c r="G65" s="1">
+        <v>6.6377021634800002</v>
+      </c>
+      <c r="H65" s="13">
+        <v>17.805999684100001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="1">
         <v>8.8806031077085503</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D66" s="1">
         <v>10.8996534617481</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E66" s="1">
         <v>6.69959350341</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F66" s="1">
         <v>8.4238819879599998</v>
       </c>
-      <c r="G64" s="1">
+      <c r="G66" s="1">
         <v>14.8806445086</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H66" s="1">
         <v>18.7297437595</v>
       </c>
     </row>

--- a/Assignment 2/Part 2/Prediction Results.xlsx
+++ b/Assignment 2/Part 2/Prediction Results.xlsx
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
